--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt1-Ryk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt1-Ryk.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H2">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I2">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J2">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.182053333333334</v>
+        <v>7.60267</v>
       </c>
       <c r="N2">
-        <v>27.54616</v>
+        <v>22.80801</v>
       </c>
       <c r="O2">
-        <v>0.1632474062119585</v>
+        <v>0.1369613544323865</v>
       </c>
       <c r="P2">
-        <v>0.1844076677824049</v>
+        <v>0.1558153465164618</v>
       </c>
       <c r="Q2">
-        <v>0.1789551587822223</v>
+        <v>0.20620721841</v>
       </c>
       <c r="R2">
-        <v>1.61059642904</v>
+        <v>1.85586496569</v>
       </c>
       <c r="S2">
-        <v>0.01158413789171251</v>
+        <v>0.01315962002022622</v>
       </c>
       <c r="T2">
-        <v>0.01308568326719303</v>
+        <v>0.01497116293843874</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H3">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I3">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J3">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>27.25159233333333</v>
       </c>
       <c r="N3">
-        <v>81.754777</v>
+        <v>81.75477699999999</v>
       </c>
       <c r="O3">
-        <v>0.4845051103561108</v>
+        <v>0.4909347632361489</v>
       </c>
       <c r="P3">
-        <v>0.5473070568326257</v>
+        <v>0.5585164557377457</v>
       </c>
       <c r="Q3">
-        <v>0.5311244507125557</v>
+        <v>0.7391449388569998</v>
       </c>
       <c r="R3">
-        <v>4.780120056413001</v>
+        <v>6.652304449712999</v>
       </c>
       <c r="S3">
-        <v>0.03438078520106637</v>
+        <v>0.04717034937104683</v>
       </c>
       <c r="T3">
-        <v>0.03883725054243486</v>
+        <v>0.0536637824809233</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H4">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I4">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J4">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3190983333333333</v>
+        <v>0.3673663333333333</v>
       </c>
       <c r="N4">
-        <v>0.957295</v>
+        <v>1.102099</v>
       </c>
       <c r="O4">
-        <v>0.00567323814751954</v>
+        <v>0.00661806846623527</v>
       </c>
       <c r="P4">
-        <v>0.006408607890528383</v>
+        <v>0.007529106554252038</v>
       </c>
       <c r="Q4">
-        <v>0.006219120150555556</v>
+        <v>0.009964077058999998</v>
       </c>
       <c r="R4">
-        <v>0.05597208135500001</v>
+        <v>0.089676693531</v>
       </c>
       <c r="S4">
-        <v>0.0004025765218472167</v>
+        <v>0.0006358820460299383</v>
       </c>
       <c r="T4">
-        <v>0.000454758818044604</v>
+        <v>0.0007234170672185075</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H5">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I5">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J5">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.362295</v>
+        <v>20.150343</v>
       </c>
       <c r="N5">
-        <v>38.72459</v>
+        <v>40.300686</v>
       </c>
       <c r="O5">
-        <v>0.344241568014646</v>
+        <v>0.3630064529378702</v>
       </c>
       <c r="P5">
-        <v>0.2592416266996866</v>
+        <v>0.2753184233934096</v>
       </c>
       <c r="Q5">
-        <v>0.3773646754516667</v>
+        <v>0.5465377531889999</v>
       </c>
       <c r="R5">
-        <v>2.26418805271</v>
+        <v>3.279226519134</v>
       </c>
       <c r="S5">
-        <v>0.02442759664287316</v>
+        <v>0.03487864883747752</v>
       </c>
       <c r="T5">
-        <v>0.01839594772526953</v>
+        <v>0.02645334409432725</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H6">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I6">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J6">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1312043333333333</v>
+        <v>0.1376283333333333</v>
       </c>
       <c r="N6">
-        <v>0.393613</v>
+        <v>0.412885</v>
       </c>
       <c r="O6">
-        <v>0.00233267726976492</v>
+        <v>0.002479360927359111</v>
       </c>
       <c r="P6">
-        <v>0.002635040794754541</v>
+        <v>0.002820667798130978</v>
       </c>
       <c r="Q6">
-        <v>0.002557128721888889</v>
+        <v>0.003732893284999999</v>
       </c>
       <c r="R6">
-        <v>0.023014158497</v>
+        <v>0.033596039565</v>
       </c>
       <c r="S6">
-        <v>0.000165528235803852</v>
+        <v>0.0002382237517455973</v>
       </c>
       <c r="T6">
-        <v>0.000186984140361112</v>
+        <v>0.0002710174456183279</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I7">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J7">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.182053333333334</v>
+        <v>7.60267</v>
       </c>
       <c r="N7">
-        <v>27.54616</v>
+        <v>22.80801</v>
       </c>
       <c r="O7">
-        <v>0.1632474062119585</v>
+        <v>0.1369613544323865</v>
       </c>
       <c r="P7">
-        <v>0.1844076677824049</v>
+        <v>0.1558153465164618</v>
       </c>
       <c r="Q7">
-        <v>2.3429386388</v>
+        <v>1.93993529055</v>
       </c>
       <c r="R7">
-        <v>21.0864477492</v>
+        <v>17.45941761495</v>
       </c>
       <c r="S7">
-        <v>0.151663268320246</v>
+        <v>0.1238017344121602</v>
       </c>
       <c r="T7">
-        <v>0.1713219845152119</v>
+        <v>0.1408441835780231</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I8">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J8">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>27.25159233333333</v>
       </c>
       <c r="N8">
-        <v>81.754777</v>
+        <v>81.75477699999999</v>
       </c>
       <c r="O8">
-        <v>0.4845051103561108</v>
+        <v>0.4909347632361489</v>
       </c>
       <c r="P8">
-        <v>0.5473070568326257</v>
+        <v>0.5585164557377457</v>
       </c>
       <c r="Q8">
         <v>6.953652557734999</v>
       </c>
       <c r="R8">
-        <v>62.582873019615</v>
+        <v>62.58287301961499</v>
       </c>
       <c r="S8">
-        <v>0.4501243251550444</v>
+        <v>0.4437644138651021</v>
       </c>
       <c r="T8">
-        <v>0.5084698062901909</v>
+        <v>0.5048526732568224</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I9">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J9">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3190983333333333</v>
+        <v>0.3673663333333333</v>
       </c>
       <c r="N9">
-        <v>0.957295</v>
+        <v>1.102099</v>
       </c>
       <c r="O9">
-        <v>0.00567323814751954</v>
+        <v>0.00661806846623527</v>
       </c>
       <c r="P9">
-        <v>0.006408607890528383</v>
+        <v>0.007529106554252038</v>
       </c>
       <c r="Q9">
-        <v>0.08142272622499999</v>
+        <v>0.09373903044499998</v>
       </c>
       <c r="R9">
-        <v>0.732804536025</v>
+        <v>0.8436512740049998</v>
       </c>
       <c r="S9">
-        <v>0.005270661625672322</v>
+        <v>0.005982186420205331</v>
       </c>
       <c r="T9">
-        <v>0.005953849072483779</v>
+        <v>0.00680568948703353</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I10">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J10">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.362295</v>
+        <v>20.150343</v>
       </c>
       <c r="N10">
-        <v>38.72459</v>
+        <v>40.300686</v>
       </c>
       <c r="O10">
-        <v>0.344241568014646</v>
+        <v>0.3630064529378702</v>
       </c>
       <c r="P10">
-        <v>0.2592416266996866</v>
+        <v>0.2753184233934096</v>
       </c>
       <c r="Q10">
-        <v>4.940580003675</v>
+        <v>5.141662271594999</v>
       </c>
       <c r="R10">
-        <v>29.64348002205</v>
+        <v>30.84997362956999</v>
       </c>
       <c r="S10">
-        <v>0.3198139713717728</v>
+        <v>0.3281278041003927</v>
       </c>
       <c r="T10">
-        <v>0.2408456789744171</v>
+        <v>0.2488650792990824</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I11">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J11">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.1312043333333333</v>
+        <v>0.1376283333333333</v>
       </c>
       <c r="N11">
-        <v>0.393613</v>
+        <v>0.412885</v>
       </c>
       <c r="O11">
-        <v>0.00233267726976492</v>
+        <v>0.002479360927359111</v>
       </c>
       <c r="P11">
-        <v>0.002635040794754541</v>
+        <v>0.002820667798130978</v>
       </c>
       <c r="Q11">
-        <v>0.033478753715</v>
+        <v>0.035117933675</v>
       </c>
       <c r="R11">
-        <v>0.3013087834349999</v>
+        <v>0.316061403075</v>
       </c>
       <c r="S11">
-        <v>0.002167149033961068</v>
+        <v>0.002241137175613514</v>
       </c>
       <c r="T11">
-        <v>0.002448056654393429</v>
+        <v>0.00254965035251265</v>
       </c>
     </row>
   </sheetData>
